--- a/ЕСіМ2/Сіденко_М_О_08_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_08_03_2021.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
     <sheet name="Вар1. Длинна" sheetId="2" r:id="rId2"/>
     <sheet name="Вар2. Длинна" sheetId="5" r:id="rId3"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId4"/>
-    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
-    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId6"/>
+    <sheet name="мережа зовнішньго електр." sheetId="7" r:id="rId4"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId5"/>
+    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId6"/>
+    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -492,46 +493,10 @@
     <t>а</t>
   </si>
   <si>
-    <t>11,8</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
     <t>д</t>
   </si>
   <si>
-    <t>ВД</t>
-  </si>
-  <si>
-    <t>9,8</t>
-  </si>
-  <si>
-    <t>34,8</t>
-  </si>
-  <si>
-    <t>11,9</t>
-  </si>
-  <si>
-    <t>14,5</t>
-  </si>
-  <si>
     <t>г</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>32,2</t>
-  </si>
-  <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>8,3</t>
   </si>
   <si>
     <t>Мережа зовнішнього електропостачання</t>
@@ -580,6 +545,15 @@
       </rPr>
       <t xml:space="preserve"> км</t>
     </r>
+  </si>
+  <si>
+    <t>3-ВП</t>
+  </si>
+  <si>
+    <t>ДЖ-3</t>
+  </si>
+  <si>
+    <t>зовнішня мережа</t>
   </si>
 </sst>
 </file>
@@ -676,7 +650,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -949,23 +923,36 @@
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF000000"/>
-      </top>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -975,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,22 +1035,76 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,37 +1119,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1660,6 +1683,63 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11266" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11266"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2011,15 +2091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>610263</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>8283</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2028,8 +2108,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6697980" y="1066800"/>
-          <a:ext cx="22860" cy="586740"/>
+          <a:off x="6764241" y="3054629"/>
+          <a:ext cx="10933" cy="622850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2061,15 +2141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>546653</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2077,9 +2157,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8473440" y="1066800"/>
-          <a:ext cx="22860" cy="586740"/>
+        <a:xfrm flipH="1">
+          <a:off x="8539370" y="3062799"/>
+          <a:ext cx="1987" cy="573266"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2258,10 +2338,259 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>124240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Прямая соединительная линия 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5541065" y="4398065"/>
+          <a:ext cx="3801718" cy="2984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147102</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6913993" y="4414631"/>
+          <a:ext cx="10268" cy="828260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>118607</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Прямая со стрелкой 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9337150" y="4381501"/>
+          <a:ext cx="5632" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604631</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Прямая со стрелкой 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5557630" y="4257261"/>
+          <a:ext cx="1200979" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>235226</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>210379</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Прямая со стрелкой 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7615030" y="4252291"/>
+          <a:ext cx="1200979" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2419,7 +2748,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2529,14 +2858,14 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2595,6 +2924,57 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>28574</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>38659</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2936,7 +3316,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2954,14 +3334,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2977,7 +3357,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -3184,7 +3564,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3214,7 +3594,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4096,7 +4476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4596,11 +4976,233 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G3:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>'Вар2. Длинна'!F4</f>
+        <v>Ділянка</v>
+      </c>
+      <c r="H3" t="str">
+        <f>'Вар2. Длинна'!G4</f>
+        <v>l, км</v>
+      </c>
+      <c r="I3" t="str">
+        <f>'Вар2. Длинна'!H4</f>
+        <v>mm</v>
+      </c>
+      <c r="J3">
+        <f>'Вар2. Длинна'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <f>'Вар2. Длинна'!K3</f>
+        <v>Х</v>
+      </c>
+      <c r="L3" t="str">
+        <f>'Вар2. Длинна'!L3</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <f>ROUND(1.1*I4/10*2,1)</f>
+        <v>14.8</v>
+      </c>
+      <c r="I4">
+        <f>SQRT(($K$11-K12)^2+($L$11-L12)^2)</f>
+        <v>67.119296778199342</v>
+      </c>
+      <c r="J4">
+        <f>'Вар2. Длинна'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <f>'Вар2. Длинна'!K4</f>
+        <v>мм</v>
+      </c>
+      <c r="L4" t="str">
+        <f>'Вар2. Длинна'!L4</f>
+        <v>мм</v>
+      </c>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="0">ROUND(1.1*I5/10*2,1)</f>
+        <v>22.6</v>
+      </c>
+      <c r="I5">
+        <f>SQRT(($K$12-K5)^2+($L$12-L5)^2)</f>
+        <v>102.88342918079665</v>
+      </c>
+      <c r="J5" t="str">
+        <f>'Вар2. Длинна'!J5</f>
+        <v>А</v>
+      </c>
+      <c r="K5">
+        <f>'Вар2. Длинна'!K5</f>
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <f>'Вар2. Длинна'!L5</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="I6">
+        <f>SQRT(($K$12-K6)^2+($L$12-L6)^2)</f>
+        <v>49.244289008980523</v>
+      </c>
+      <c r="J6" t="str">
+        <f>'Вар2. Длинна'!J6</f>
+        <v>Б</v>
+      </c>
+      <c r="K6">
+        <f>'Вар2. Длинна'!K6</f>
+        <v>95</v>
+      </c>
+      <c r="L6">
+        <f>'Вар2. Длинна'!L6</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f>'Вар2. Длинна'!J7</f>
+        <v>В</v>
+      </c>
+      <c r="K7">
+        <f>'Вар2. Длинна'!K7</f>
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <f>'Вар2. Длинна'!L7</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f>'Вар2. Длинна'!J8</f>
+        <v>Г</v>
+      </c>
+      <c r="K8">
+        <f>'Вар2. Длинна'!K8</f>
+        <v>140</v>
+      </c>
+      <c r="L8">
+        <f>'Вар2. Длинна'!L8</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f>'Вар2. Длинна'!J9</f>
+        <v>Д</v>
+      </c>
+      <c r="K9">
+        <f>'Вар2. Длинна'!K9</f>
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <f>'Вар2. Длинна'!L9</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f>'Вар2. Длинна'!J10</f>
+        <v>Е</v>
+      </c>
+      <c r="K10">
+        <f>'Вар2. Длинна'!K10</f>
+        <v>130</v>
+      </c>
+      <c r="L10">
+        <f>'Вар2. Длинна'!L10</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>'Вар2. Длинна'!K11</f>
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <f>'Вар2. Длинна'!L11</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>52</v>
+      </c>
+      <c r="L12">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="11266" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="11266" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,7 +5586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J17">
         <f>D11</f>
         <v>9.8000000000000007</v>
@@ -4998,7 +5600,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K20">
         <f>E15</f>
         <v>32</v>
@@ -5014,6 +5616,117 @@
       <c r="O20">
         <f>F16</f>
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>F25</f>
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <f>G25</f>
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <f>O29</f>
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <f>P29</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f>E3</f>
+        <v>P</v>
+      </c>
+      <c r="G24" t="str">
+        <f>F3</f>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="str">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E25">
+        <f>'Таблиця 1-4'!E14</f>
+        <v>14.8</v>
+      </c>
+      <c r="F25">
+        <f>F26+F27</f>
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <f>G26+G27</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E26">
+        <f>'Таблиця 1-4'!E15</f>
+        <v>22.6</v>
+      </c>
+      <c r="F26">
+        <f>'Табл1-1  1-2'!B4</f>
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <f>'Табл1-1  1-2'!C4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E27">
+        <f>'Таблиця 1-4'!E16</f>
+        <v>10.8</v>
+      </c>
+      <c r="F27">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f>F27</f>
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <f>G27</f>
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <f>F26</f>
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <f>G26</f>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="11:18" x14ac:dyDescent="0.25">
@@ -5037,7 +5750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
@@ -5052,26 +5765,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="46" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="45"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -5385,12 +6098,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5410,10 +6123,10 @@
         <v>43</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>87</v>
@@ -5422,223 +6135,395 @@
         <v>88</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="26" t="str">
+        <f>Потокорозподіл!C5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="E3" s="26">
+        <f>Потокорозподіл!D5</f>
+        <v>11.8</v>
+      </c>
+      <c r="F3" s="29">
+        <f>Потокорозподіл!E5</f>
+        <v>26.968</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
+        <v>91.4</v>
+      </c>
+      <c r="I3" s="49">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="26" t="str">
+        <f>Потокорозподіл!C6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E4" s="26">
+        <f>Потокорозподіл!D6</f>
+        <v>7.8</v>
+      </c>
+      <c r="F4" s="30">
+        <f>Потокорозподіл!E6</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <f t="shared" ref="H4:H16" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
+        <v>103.5</v>
+      </c>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="26" t="str">
+        <f>Потокорозподіл!C7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E5" s="26">
+        <f>Потокорозподіл!D7</f>
+        <v>5.6</v>
+      </c>
+      <c r="F5" s="30">
+        <f>-Потокорозподіл!E7</f>
+        <v>8.032</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" si="0"/>
+        <v>50.3</v>
+      </c>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44"/>
+      <c r="C6" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="38">
+      <c r="D6" s="26" t="str">
+        <f>Потокорозподіл!C8</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E6" s="26">
+        <f>Потокорозподіл!D8</f>
+        <v>5.6</v>
+      </c>
+      <c r="F6" s="28">
+        <f>Потокорозподіл!E8</f>
+        <v>35</v>
+      </c>
+      <c r="G6" s="27">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
+        <f t="shared" si="0"/>
+        <v>73.3</v>
+      </c>
+      <c r="I6" s="46">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="52"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="26" t="str">
+        <f>Потокорозподіл!C9</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E7" s="26">
+        <f>Потокорозподіл!D9</f>
+        <v>7.8</v>
+      </c>
+      <c r="F7" s="28">
+        <f>Потокорозподіл!E9</f>
         <v>27</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="0"/>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="31" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="E8" s="31">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F8" s="32">
+        <f>Потокорозподіл!E11</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="0"/>
+        <v>103.4</v>
+      </c>
+      <c r="I8" s="58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="44"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="31" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="E9" s="31">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="F9" s="32">
+        <f>Потокорозподіл!E12</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="0"/>
+        <v>99.6</v>
+      </c>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="31" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="E10" s="31">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="F10" s="32">
+        <f>-Потокорозподіл!E13</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31">
+        <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
+        <v>33.6</v>
+      </c>
+      <c r="I10" s="60"/>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44"/>
+      <c r="C11" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D11" s="31" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="E11" s="31">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="F11" s="32">
+        <f>Потокорозподіл!E14</f>
+        <v>67</v>
+      </c>
+      <c r="G11" s="31">
+        <v>2</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I11" s="58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="31" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="E12" s="31">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="F12" s="32">
+        <f>Потокорозподіл!E15</f>
+        <v>32</v>
+      </c>
+      <c r="G12" s="31">
+        <v>2</v>
+      </c>
+      <c r="H12" s="31">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="52"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="31" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="E13" s="31">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F13" s="32">
+        <f>Потокорозподіл!E16</f>
+        <v>35</v>
+      </c>
+      <c r="G13" s="31">
+        <v>2</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="0"/>
+        <v>73.7</v>
+      </c>
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="42">
-        <v>35</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="34" t="str">
+        <f>'мережа зовнішньго електр.'!G4</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E14" s="34">
+        <f>'мережа зовнішньго електр.'!H4</f>
+        <v>14.8</v>
+      </c>
+      <c r="F14" s="34">
+        <f>Потокорозподіл!F25</f>
+        <v>36</v>
+      </c>
+      <c r="G14" s="34">
+        <v>2</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="0"/>
+        <v>75.5</v>
+      </c>
+      <c r="I14" s="58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="44"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="34" t="str">
+        <f>'мережа зовнішньго електр.'!G5</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E15" s="34">
+        <f>'мережа зовнішньго електр.'!H5</f>
+        <v>22.6</v>
+      </c>
+      <c r="F15" s="35">
+        <f>Потокорозподіл!F26</f>
+        <v>16</v>
+      </c>
+      <c r="G15" s="35">
+        <v>2</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" si="0"/>
+        <v>53.3</v>
+      </c>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="34" t="str">
+        <f>'мережа зовнішньго електр.'!G6</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E16" s="34">
+        <f>'мережа зовнішньго електр.'!H6</f>
+        <v>10.8</v>
+      </c>
+      <c r="F16" s="36">
+        <f>Потокорозподіл!F27</f>
         <v>20</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="28">
-        <f>ROUND(1.1*50/10*2,1)</f>
-        <v>11</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G16" s="36">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="0"/>
+        <v>56.7</v>
+      </c>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="13">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5657,13 +6542,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId3"/>
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -5682,38 +6567,38 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId5"/>
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId7">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId7"/>
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId9">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -5732,7 +6617,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId9"/>
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/ЕСіМ2/Сіденко_М_О_08_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_08_03_2021.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,18 @@
     <sheet name="Потокорозподіл" sheetId="4" r:id="rId5"/>
     <sheet name="Таблиця 1-3" sheetId="3" r:id="rId6"/>
     <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
+    <sheet name="Fрозр" sheetId="8" r:id="rId8"/>
+    <sheet name="мех міцн" sheetId="9" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -555,6 +560,256 @@
   <si>
     <t>зовнішня мережа</t>
   </si>
+  <si>
+    <r>
+      <t>мм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>МВ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>А</t>
+    </r>
+  </si>
+  <si>
+    <t>A/mm2</t>
+  </si>
+  <si>
+    <t>Прийнята марка</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>р</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ном</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+jQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл,</t>
+    </r>
+  </si>
+  <si>
+    <t>Ділянка мережі</t>
+  </si>
+  <si>
+    <t>Варі-ант</t>
+  </si>
+  <si>
+    <t>Гру-па</t>
+  </si>
+  <si>
+    <t>Марка проводу</t>
+  </si>
+  <si>
+    <r>
+      <t>Реальні перетини, мм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Відношення </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>А : C</t>
+    </r>
+  </si>
+  <si>
+    <t>Алюміній</t>
+  </si>
+  <si>
+    <t>сталі</t>
+  </si>
+  <si>
+    <t>фактичне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за ПУЕ </t>
+  </si>
+  <si>
+    <t>АС-120/24</t>
+  </si>
+  <si>
+    <t>4 – 4,5</t>
+  </si>
+  <si>
+    <t>АС-150/34</t>
+  </si>
+  <si>
+    <t>АС-185/</t>
+  </si>
+  <si>
+    <t>АС-120/19</t>
+  </si>
+  <si>
+    <t>АС-150/24</t>
+  </si>
 </sst>
 </file>
 
@@ -563,7 +818,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +896,69 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -650,7 +968,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -958,11 +1276,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,6 +1465,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,6 +1556,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2959,13 +3424,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>28574</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>38659</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3006,6 +3471,108 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Рис 1-2 Довжини"/>
+      <sheetName val="Таблиця 1-3"/>
+      <sheetName val="Потокорозподіл"/>
+      <sheetName val="Unom"/>
+      <sheetName val="Fрозр"/>
+      <sheetName val="мех міцн"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="5">
+          <cell r="F5">
+            <v>2.1659999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>1.8340000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>0.16599999999999993</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>4.2350000000000003</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>3.7650000000000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>0.76500000000000012</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>22</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="15">
+          <cell r="J15">
+            <v>110</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3316,7 +3883,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3334,14 +3901,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3357,7 +3924,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -3564,7 +4131,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3594,7 +4161,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3974,7 +4541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -5201,7 +5768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -5765,26 +6332,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="40" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="39"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -6102,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6139,10 +6706,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="60" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -6164,13 +6731,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="56">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -6190,11 +6757,11 @@
         <f t="shared" ref="H4:H16" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -6214,11 +6781,11 @@
         <f t="shared" si="0"/>
         <v>50.3</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -6240,13 +6807,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="53">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="52"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -6266,13 +6833,13 @@
         <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="31" t="str">
@@ -6294,13 +6861,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="65">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="31" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -6320,11 +6887,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="59"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="31" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -6344,11 +6911,11 @@
         <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
         <v>33.6</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="31" t="str">
@@ -6370,13 +6937,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="65">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="31" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -6396,11 +6963,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="31" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -6420,13 +6987,13 @@
         <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="34" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -6446,13 +7013,13 @@
         <f t="shared" si="0"/>
         <v>75.5</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="65">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="34" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -6472,11 +7039,11 @@
         <f t="shared" si="0"/>
         <v>53.3</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="34" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -6496,7 +7063,7 @@
         <f t="shared" si="0"/>
         <v>56.7</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6522,8 +7089,33 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId4">
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6542,13 +7134,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9220" r:id="rId4"/>
+        <oleObject progId="Equation.3" shapeId="9220" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -6567,13 +7159,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9219" r:id="rId6"/>
+        <oleObject progId="Equation.3" shapeId="9219" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -6592,13 +7184,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9218" r:id="rId8"/>
+        <oleObject progId="Equation.3" shapeId="9218" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -6617,34 +7209,896 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="9217" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="9221" r:id="rId12"/>
+        <oleObject progId="Equation.3" shapeId="9217" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="69"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>'Таблиця 1-4'!F3</f>
+        <v>26.968</v>
+      </c>
+      <c r="B4">
+        <f>[1]Потокорозподіл!F5</f>
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="37" t="str">
+        <f>'Таблиця 1-4'!D3</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="F4" s="37" t="str">
+        <f>COMPLEX(A4,B4)</f>
+        <v>26.968+2.166i</v>
+      </c>
+      <c r="G4" s="37">
+        <f>ROUND(1*IMABS(F4),2)</f>
+        <v>27.05</v>
+      </c>
+      <c r="H4" s="37">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="I4" s="37">
+        <f>'Таблиця 1-4'!G3</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="37">
+        <f>ROUND(G4/SQRT(3)/H4/I4*10^3,2)</f>
+        <v>141.97999999999999</v>
+      </c>
+      <c r="K4" s="38">
+        <f>J4/$M$2</f>
+        <v>177.47499999999997</v>
+      </c>
+      <c r="L4" s="82">
+        <v>185</v>
+      </c>
+      <c r="M4" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>'Таблиця 1-4'!F4</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="B5">
+        <f>[1]Потокорозподіл!F6</f>
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="37" t="str">
+        <f>'Таблиця 1-4'!D4</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="F5" s="37" t="str">
+        <f t="shared" ref="F4:F17" si="0">COMPLEX(A5,B5)</f>
+        <v>35.032+1.834i</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" ref="G4:G17" si="1">ROUND(1*IMABS(F5),2)</f>
+        <v>35.08</v>
+      </c>
+      <c r="H5" s="37">
+        <f>H4</f>
+        <v>110</v>
+      </c>
+      <c r="I5" s="37">
+        <f>'Таблиця 1-4'!G4</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" ref="J4:J17" si="2">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
+        <v>184.12</v>
+      </c>
+      <c r="K5" s="38">
+        <f>J5/$M$2</f>
+        <v>230.15</v>
+      </c>
+      <c r="L5" s="82">
+        <v>240</v>
+      </c>
+      <c r="M5" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'Таблиця 1-4'!F5</f>
+        <v>8.032</v>
+      </c>
+      <c r="B6">
+        <f>[1]Потокорозподіл!F7</f>
+        <v>0.16599999999999993</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="37" t="str">
+        <f>'Таблиця 1-4'!D5</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>8.032+0.166i</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="1"/>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H6" s="37">
+        <f>H5</f>
+        <v>110</v>
+      </c>
+      <c r="I6" s="37">
+        <f>'Таблиця 1-4'!G5</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="2"/>
+        <v>42.15</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" ref="K4:K17" si="3">J6/$M$2</f>
+        <v>52.687499999999993</v>
+      </c>
+      <c r="L6" s="82">
+        <v>70</v>
+      </c>
+      <c r="M6" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'Таблиця 1-4'!F6</f>
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>[1]Потокорозподіл!F8</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="37" t="str">
+        <f>'Таблиця 1-4'!D6</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>35+4i</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="1"/>
+        <v>35.229999999999997</v>
+      </c>
+      <c r="H7" s="37">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="I7" s="37">
+        <f>'Таблиця 1-4'!G6</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="2"/>
+        <v>92.45</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="3"/>
+        <v>115.5625</v>
+      </c>
+      <c r="L7" s="82">
+        <v>120</v>
+      </c>
+      <c r="M7" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'Таблиця 1-4'!F7</f>
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f>[1]Потокорозподіл!F9</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="37" t="str">
+        <f>'Таблиця 1-4'!D7</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="F8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>27+2i</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="1"/>
+        <v>27.07</v>
+      </c>
+      <c r="H8" s="37">
+        <f>H7</f>
+        <v>110</v>
+      </c>
+      <c r="I8" s="37">
+        <f>'Таблиця 1-4'!G7</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="2"/>
+        <v>71.040000000000006</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" si="3"/>
+        <v>88.8</v>
+      </c>
+      <c r="L8" s="82">
+        <v>95</v>
+      </c>
+      <c r="M8" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'Таблиця 1-4'!F8</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="B9">
+        <f>[1]Потокорозподіл!F10</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="37" t="str">
+        <f>'Таблиця 1-4'!D8</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="F9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>34.843+2i</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="1"/>
+        <v>34.9</v>
+      </c>
+      <c r="H9" s="37">
+        <f>H8</f>
+        <v>110</v>
+      </c>
+      <c r="I9" s="37">
+        <f>'Таблиця 1-4'!G8</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="2"/>
+        <v>183.18</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="3"/>
+        <v>228.97499999999999</v>
+      </c>
+      <c r="L9" s="82">
+        <v>240</v>
+      </c>
+      <c r="M9" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'Таблиця 1-4'!F9</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="B10">
+        <f>[1]Потокорозподіл!F11</f>
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="37" t="str">
+        <f>'Таблиця 1-4'!D9</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="F10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>32.157+4.235i</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="1"/>
+        <v>32.43</v>
+      </c>
+      <c r="H10" s="37">
+        <f t="shared" ref="H10:H14" si="4">H9</f>
+        <v>110</v>
+      </c>
+      <c r="I10" s="37">
+        <f>'Таблиця 1-4'!G9</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="2"/>
+        <v>170.21</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="3"/>
+        <v>212.76249999999999</v>
+      </c>
+      <c r="L10" s="82">
+        <v>240</v>
+      </c>
+      <c r="M10" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>'Таблиця 1-4'!F10</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="B11">
+        <f>[1]Потокорозподіл!F12</f>
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="37" t="str">
+        <f>'Таблиця 1-4'!D10</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="F11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>2.843+3.765i</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="1"/>
+        <v>4.72</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="I11" s="37">
+        <f>'Таблиця 1-4'!G10</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="2"/>
+        <v>24.77</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="3"/>
+        <v>30.962499999999999</v>
+      </c>
+      <c r="L11" s="82">
+        <v>70</v>
+      </c>
+      <c r="M11" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>'Таблиця 1-4'!F11</f>
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <f>[1]Потокорозподіл!F13</f>
+        <v>0.76500000000000012</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="37" t="str">
+        <f>'Таблиця 1-4'!D11</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="F12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>67+0.765i</v>
+      </c>
+      <c r="G12" s="37">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="H12" s="37">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="I12" s="37">
+        <f>'Таблиця 1-4'!G11</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="2"/>
+        <v>175.83</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="3"/>
+        <v>219.78749999999999</v>
+      </c>
+      <c r="L12" s="82">
+        <v>240</v>
+      </c>
+      <c r="M12" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>'Таблиця 1-4'!F12</f>
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <f>[1]Потокорозподіл!F14</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="37" t="str">
+        <f>'Таблиця 1-4'!D12</f>
+        <v>Г-2</v>
+      </c>
+      <c r="F13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>32+8i</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="1"/>
+        <v>32.979999999999997</v>
+      </c>
+      <c r="H13" s="37">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="I13" s="37">
+        <f>'Таблиця 1-4'!G12</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="2"/>
+        <v>86.55</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="3"/>
+        <v>108.18749999999999</v>
+      </c>
+      <c r="L13" s="82">
+        <v>120</v>
+      </c>
+      <c r="M13" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>'Таблиця 1-4'!F13</f>
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <f>[1]Потокорозподіл!F15</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="37" t="str">
+        <f>'Таблиця 1-4'!D13</f>
+        <v>Е-2</v>
+      </c>
+      <c r="F14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>35+5i</v>
+      </c>
+      <c r="G14" s="37">
+        <f t="shared" si="1"/>
+        <v>35.36</v>
+      </c>
+      <c r="H14" s="37">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="I14" s="37">
+        <f>'Таблиця 1-4'!G13</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="2"/>
+        <v>92.8</v>
+      </c>
+      <c r="K14" s="38">
+        <f t="shared" si="3"/>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="L14" s="82">
+        <v>120</v>
+      </c>
+      <c r="M14" s="37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>'Таблиця 1-4'!F14</f>
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <f>[1]Потокорозподіл!F16</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="37" t="str">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="F15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>36+3i</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" si="1"/>
+        <v>36.119999999999997</v>
+      </c>
+      <c r="H15" s="37">
+        <f>H14</f>
+        <v>110</v>
+      </c>
+      <c r="I15" s="37">
+        <f>'Таблиця 1-4'!G14</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" si="2"/>
+        <v>94.79</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="3"/>
+        <v>118.4875</v>
+      </c>
+      <c r="L15" s="82">
+        <v>120</v>
+      </c>
+      <c r="M15" s="37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>'Таблиця 1-4'!F15</f>
+        <v>16</v>
+      </c>
+      <c r="B16" s="80">
+        <f>[1]Потокорозподіл!F17</f>
+        <v>37</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="37" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="F16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>16+37i</v>
+      </c>
+      <c r="G16" s="37">
+        <f t="shared" si="1"/>
+        <v>40.31</v>
+      </c>
+      <c r="H16" s="37">
+        <f>[1]Unom!J15</f>
+        <v>110</v>
+      </c>
+      <c r="I16" s="37">
+        <f>'Таблиця 1-4'!G15</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="2"/>
+        <v>105.79</v>
+      </c>
+      <c r="K16" s="38">
+        <f t="shared" si="3"/>
+        <v>132.23750000000001</v>
+      </c>
+      <c r="L16" s="37">
+        <v>150</v>
+      </c>
+      <c r="M16" s="37">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'Таблиця 1-4'!F16</f>
+        <v>20</v>
+      </c>
+      <c r="B17" s="80">
+        <f>[1]Потокорозподіл!F18</f>
+        <v>22</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="37" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="F17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>20+22i</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" si="1"/>
+        <v>29.73</v>
+      </c>
+      <c r="H17" s="37">
+        <f>H16</f>
+        <v>110</v>
+      </c>
+      <c r="I17" s="37">
+        <f>'Таблиця 1-4'!G16</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" si="2"/>
+        <v>78.02</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="3"/>
+        <v>97.524999999999991</v>
+      </c>
+      <c r="L17" s="37">
+        <v>120</v>
+      </c>
+      <c r="M17" s="37">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="75"/>
+      <c r="D4" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="40">
+        <v>114</v>
+      </c>
+      <c r="E5" s="40">
+        <v>26.6</v>
+      </c>
+      <c r="F5" s="42">
+        <f>D5/E3:E5</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="40">
+        <v>147</v>
+      </c>
+      <c r="E6" s="40">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F6" s="42">
+        <f t="shared" ref="F6:F7" si="0">D6/E4:E6</f>
+        <v>4.2857142857142865</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="40">
+        <v>118</v>
+      </c>
+      <c r="E10" s="40">
+        <v>18.8</v>
+      </c>
+      <c r="F10" s="42">
+        <f>D10/E4:E10</f>
+        <v>6.2765957446808507</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="40">
+        <v>149</v>
+      </c>
+      <c r="E11" s="40">
+        <v>24.2</v>
+      </c>
+      <c r="F11" s="42">
+        <f>D11/E5:E11</f>
+        <v>6.1570247933884303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЕСіМ2/Сіденко_М_О_08_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_08_03_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -1486,6 +1486,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,6 +1581,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1586,17 +1597,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3883,7 +3883,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3901,14 +3901,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -4131,7 +4131,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4161,7 +4161,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -6332,26 +6332,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="47" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="46"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -6706,10 +6706,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -6731,13 +6731,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="59">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -6757,11 +6757,11 @@
         <f t="shared" ref="H4:H16" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -6781,11 +6781,11 @@
         <f t="shared" si="0"/>
         <v>50.3</v>
       </c>
-      <c r="I5" s="57"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="66" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -6807,13 +6807,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="56">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -6833,13 +6833,13 @@
         <f t="shared" si="0"/>
         <v>64.900000000000006</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="66" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="31" t="str">
@@ -6861,13 +6861,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="68">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="31" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -6887,11 +6887,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="66"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="31" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -6911,11 +6911,11 @@
         <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
         <v>33.6</v>
       </c>
-      <c r="I10" s="67"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="66" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="31" t="str">
@@ -6937,13 +6937,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="68">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="31" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -6963,11 +6963,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="66"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="31" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -6987,13 +6987,13 @@
         <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="34" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -7013,13 +7013,13 @@
         <f t="shared" si="0"/>
         <v>75.5</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="68">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="34" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -7039,11 +7039,11 @@
         <f t="shared" si="0"/>
         <v>53.3</v>
       </c>
-      <c r="I15" s="66"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="52"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="34" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -7063,7 +7063,7 @@
         <f t="shared" si="0"/>
         <v>56.7</v>
       </c>
-      <c r="I16" s="67"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7221,7 +7221,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7235,13 +7235,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="71" t="s">
         <v>109</v>
       </c>
       <c r="F2" s="39" t="s">
@@ -7253,19 +7253,19 @@
       <c r="H2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="75" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="81">
+      <c r="M2" s="45">
         <v>0.8</v>
       </c>
       <c r="N2" t="s">
@@ -7273,9 +7273,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="37" t="s">
         <v>101</v>
       </c>
@@ -7285,12 +7285,12 @@
       <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="69"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -7301,10 +7301,10 @@
         <f>[1]Потокорозподіл!F5</f>
         <v>2.1659999999999999</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="71" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="37" t="str">
@@ -7335,11 +7335,11 @@
         <f>J4/$M$2</f>
         <v>177.47499999999997</v>
       </c>
-      <c r="L4" s="82">
+      <c r="L4" s="46">
         <v>185</v>
       </c>
       <c r="M4" s="37">
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7351,18 +7351,18 @@
         <f>[1]Потокорозподіл!F6</f>
         <v>1.8340000000000001</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="37" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
       </c>
       <c r="F5" s="37" t="str">
-        <f t="shared" ref="F4:F17" si="0">COMPLEX(A5,B5)</f>
+        <f t="shared" ref="F5:F17" si="0">COMPLEX(A5,B5)</f>
         <v>35.032+1.834i</v>
       </c>
       <c r="G5" s="37">
-        <f t="shared" ref="G4:G17" si="1">ROUND(1*IMABS(F5),2)</f>
+        <f t="shared" ref="G5:G17" si="1">ROUND(1*IMABS(F5),2)</f>
         <v>35.08</v>
       </c>
       <c r="H5" s="37">
@@ -7374,14 +7374,14 @@
         <v>1</v>
       </c>
       <c r="J5" s="37">
-        <f t="shared" ref="J4:J17" si="2">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
+        <f t="shared" ref="J5:J9" si="2">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
         <v>184.12</v>
       </c>
       <c r="K5" s="38">
-        <f>J5/$M$2</f>
+        <f t="shared" ref="K5:K16" si="3">J5/$M$2</f>
         <v>230.15</v>
       </c>
-      <c r="L5" s="82">
+      <c r="L5" s="46">
         <v>240</v>
       </c>
       <c r="M5" s="37">
@@ -7397,8 +7397,8 @@
         <f>[1]Потокорозподіл!F7</f>
         <v>0.16599999999999993</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="37" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -7424,10 +7424,10 @@
         <v>42.15</v>
       </c>
       <c r="K6" s="38">
-        <f t="shared" ref="K4:K17" si="3">J6/$M$2</f>
+        <f t="shared" si="3"/>
         <v>52.687499999999993</v>
       </c>
-      <c r="L6" s="82">
+      <c r="L6" s="46">
         <v>70</v>
       </c>
       <c r="M6" s="37">
@@ -7443,8 +7443,8 @@
         <f>[1]Потокорозподіл!F8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="71" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="37" t="str">
@@ -7475,7 +7475,7 @@
         <f t="shared" si="3"/>
         <v>115.5625</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="46">
         <v>120</v>
       </c>
       <c r="M7" s="37">
@@ -7491,8 +7491,8 @@
         <f>[1]Потокорозподіл!F9</f>
         <v>2</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="37" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -7521,7 +7521,7 @@
         <f t="shared" si="3"/>
         <v>88.8</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L8" s="46">
         <v>95</v>
       </c>
       <c r="M8" s="37">
@@ -7537,10 +7537,10 @@
         <f>[1]Потокорозподіл!F10</f>
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="71" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="37" t="str">
@@ -7571,7 +7571,7 @@
         <f t="shared" si="3"/>
         <v>228.97499999999999</v>
       </c>
-      <c r="L9" s="82">
+      <c r="L9" s="46">
         <v>240</v>
       </c>
       <c r="M9" s="37">
@@ -7587,8 +7587,8 @@
         <f>[1]Потокорозподіл!F11</f>
         <v>4.2350000000000003</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="37" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -7610,14 +7610,14 @@
         <v>1</v>
       </c>
       <c r="J10" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J10:J17" si="5">ROUND(G10/SQRT(3)/H10/I10*10^3,2)</f>
         <v>170.21</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="3"/>
         <v>212.76249999999999</v>
       </c>
-      <c r="L10" s="82">
+      <c r="L10" s="46">
         <v>240</v>
       </c>
       <c r="M10" s="37">
@@ -7633,8 +7633,8 @@
         <f>[1]Потокорозподіл!F12</f>
         <v>3.7650000000000001</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="37" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -7656,14 +7656,14 @@
         <v>1</v>
       </c>
       <c r="J11" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24.77</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" si="3"/>
         <v>30.962499999999999</v>
       </c>
-      <c r="L11" s="82">
+      <c r="L11" s="46">
         <v>70</v>
       </c>
       <c r="M11" s="37">
@@ -7679,8 +7679,8 @@
         <f>[1]Потокорозподіл!F13</f>
         <v>0.76500000000000012</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="71" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="37" t="str">
@@ -7704,14 +7704,14 @@
         <v>2</v>
       </c>
       <c r="J12" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>175.83</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="3"/>
         <v>219.78749999999999</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="46">
         <v>240</v>
       </c>
       <c r="M12" s="37">
@@ -7727,8 +7727,8 @@
         <f>[1]Потокорозподіл!F14</f>
         <v>8</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="37" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -7750,14 +7750,14 @@
         <v>2</v>
       </c>
       <c r="J13" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>86.55</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="3"/>
         <v>108.18749999999999</v>
       </c>
-      <c r="L13" s="82">
+      <c r="L13" s="46">
         <v>120</v>
       </c>
       <c r="M13" s="37">
@@ -7773,8 +7773,8 @@
         <f>[1]Потокорозподіл!F15</f>
         <v>5</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="37" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -7796,14 +7796,14 @@
         <v>2</v>
       </c>
       <c r="J14" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>92.8</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="3"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="L14" s="82">
+      <c r="L14" s="46">
         <v>120</v>
       </c>
       <c r="M14" s="37">
@@ -7819,8 +7819,8 @@
         <f>[1]Потокорозподіл!F16</f>
         <v>3</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="37" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -7842,14 +7842,14 @@
         <v>2</v>
       </c>
       <c r="J15" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94.79</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="3"/>
         <v>118.4875</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="46">
         <v>120</v>
       </c>
       <c r="M15" s="37">
@@ -7861,12 +7861,12 @@
         <f>'Таблиця 1-4'!F15</f>
         <v>16</v>
       </c>
-      <c r="B16" s="80">
+      <c r="B16" s="44">
         <f>[1]Потокорозподіл!F17</f>
         <v>37</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="37" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -7888,7 +7888,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>105.79</v>
       </c>
       <c r="K16" s="38">
@@ -7907,12 +7907,12 @@
         <f>'Таблиця 1-4'!F16</f>
         <v>20</v>
       </c>
-      <c r="B17" s="80">
+      <c r="B17" s="44">
         <f>[1]Потокорозподіл!F18</f>
         <v>22</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="37" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -7934,11 +7934,11 @@
         <v>2</v>
       </c>
       <c r="J17" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>78.02</v>
       </c>
       <c r="K17" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K17" si="6">J17/$M$2</f>
         <v>97.524999999999991</v>
       </c>
       <c r="L17" s="37">
@@ -7974,8 +7974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7986,20 +7986,20 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="76" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="75"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="40" t="s">
         <v>115</v>
       </c>
